--- a/libro.xlsx
+++ b/libro.xlsx
@@ -8,18 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>metricula</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>nombre</t>
   </si>
@@ -27,56 +22,82 @@
     <t>correo</t>
   </si>
   <si>
-    <t>fechaNac</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Carlitos</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Rulo</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>b@gmail.com</t>
+  </si>
+  <si>
+    <t>c@gmail.com</t>
+  </si>
+  <si>
+    <t>d@gmail.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>javier</t>
+  </si>
+  <si>
+    <t>matricula</t>
+  </si>
+  <si>
+    <t>fecha_nacimiento</t>
+  </si>
+  <si>
+    <t>Alumno</t>
+  </si>
+  <si>
+    <t>a21345</t>
+  </si>
+  <si>
+    <t>7653s</t>
+  </si>
+  <si>
+    <t>1234d51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,13 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,122 +430,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>35925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>35560</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="E5">
-        <v>888</v>
+        <v>870987</v>
+      </c>
+      <c r="F5" s="2">
+        <v>33368</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="a@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="b@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="c@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="d@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A4" r:id="rId7"/>
+    <hyperlink ref="A5" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>